--- a/src/test/resources/xls/search.xlsx
+++ b/src/test/resources/xls/search.xlsx
@@ -5,13 +5,33 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="newsGSM" sheetId="1" r:id="rId4"/>
+    <sheet name="Обзор экспорта" sheetId="1" r:id="rId4"/>
+    <sheet name="newsGSM" sheetId="2" r:id="rId5"/>
+    <sheet name="phoneFinder" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>Документ был экспортирован из Numbers. Каждая таблица была конвертирована в рабочий лист Excel. Все другие объекты на листах Numbers были помещены на отдельные рабочие листы. Имейте в виду, что расчеты формул могут отличаться от расчетов в Excel.</t>
+  </si>
+  <si>
+    <t>Название листа Numbers</t>
+  </si>
+  <si>
+    <t>Название таблицы Numbers</t>
+  </si>
+  <si>
+    <t>Название рабочего листа Excel</t>
+  </si>
+  <si>
+    <t>newsGSM</t>
+  </si>
+  <si>
+    <t>Tаблица 1</t>
+  </si>
   <si>
     <t>Execute</t>
   </si>
@@ -39,6 +59,18 @@
   <si>
     <t>cat</t>
   </si>
+  <si>
+    <t>phoneFinder</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>bQuantity</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -59,6 +91,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -66,16 +109,22 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue Medium"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,12 +133,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,48 +173,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,8 +386,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff323232"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1235,241 +1454,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
+    <hyperlink ref="D12" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6719" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6719" style="6" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="A2" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" ht="20.3" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="A3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1478,4 +1769,116 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="20">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="D2" s="23">
+        <v>276</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/xls/search.xlsx
+++ b/src/test/resources/xls/search.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Документ был экспортирован из Numbers. Каждая таблица была конвертирована в рабочий лист Excel. Все другие объекты на листах Numbers были помещены на отдельные рабочие листы. Имейте в виду, что расчеты формул могут отличаться от расчетов в Excel.</t>
   </si>
@@ -27,10 +27,38 @@
     <t>Название рабочего листа Excel</t>
   </si>
   <si>
+    <t>Обзор экспорта</t>
+  </si>
+  <si>
+    <t>Tаблица 1</t>
+  </si>
+  <si>
     <t>newsGSM</t>
   </si>
   <si>
-    <t>Tаблица 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>newsGSM</t>
+    </r>
+  </si>
+  <si>
+    <t>phoneFinder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>phoneFinder</t>
+    </r>
   </si>
   <si>
     <t>Execute</t>
@@ -60,9 +88,6 @@
     <t>cat</t>
   </si>
   <si>
-    <t>phoneFinder</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
@@ -70,6 +95,9 @@
   </si>
   <si>
     <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Acer</t>
   </si>
 </sst>
 </file>
@@ -109,12 +137,12 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -145,17 +173,104 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -175,13 +290,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="15"/>
@@ -190,7 +320,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="15"/>
@@ -199,7 +374,7 @@
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,73 +383,13 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
         <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -284,7 +399,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -306,67 +421,136 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,6 +573,7 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff323232"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
@@ -1454,73 +1639,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Обзор экспорта'!R1C1" tooltip="" display="Обзор экспорта"/>
     <hyperlink ref="D10" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
     <hyperlink ref="D12" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
+    <hyperlink ref="D12" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
+    <hyperlink ref="D14" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1532,235 +1806,235 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6719" style="6" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.6719" style="25" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="A2" t="s" s="28">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" ht="20.3" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="A3" t="s" s="28">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="29">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="29">
+        <v>18</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1778,101 +2052,107 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="18">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="18">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s" s="18">
+      <c r="A1" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="37">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="37">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="39">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="40">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="41">
+        <v>21</v>
+      </c>
+      <c r="D2" s="42">
+        <v>276</v>
+      </c>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="44">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="45">
         <v>17</v>
       </c>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="20">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="22">
-        <v>18</v>
-      </c>
-      <c r="D2" s="23">
-        <v>276</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" t="s" s="46">
+        <v>22</v>
+      </c>
+      <c r="D3" s="47">
+        <v>69</v>
+      </c>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/src/test/resources/xls/search.xlsx
+++ b/src/test/resources/xls/search.xlsx
@@ -8,12 +8,13 @@
     <sheet name="Обзор экспорта" sheetId="1" r:id="rId4"/>
     <sheet name="newsGSM" sheetId="2" r:id="rId5"/>
     <sheet name="phoneFinder" sheetId="3" r:id="rId6"/>
+    <sheet name="opinions" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Документ был экспортирован из Numbers. Каждая таблица была конвертирована в рабочий лист Excel. Все другие объекты на листах Numbers были помещены на отдельные рабочие листы. Имейте в виду, что расчеты формул могут отличаться от расчетов в Excel.</t>
   </si>
@@ -99,6 +100,12 @@
   <si>
     <t>Acer</t>
   </si>
+  <si>
+    <t>opinions</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
 </sst>
 </file>
 
@@ -137,12 +144,12 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -152,7 +159,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +180,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -188,11 +207,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -201,7 +220,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -209,17 +228,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -236,7 +255,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -244,12 +263,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -258,18 +288,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -393,13 +412,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -421,28 +590,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -460,20 +629,20 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -552,6 +721,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,11 +787,15 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1642,7 +1860,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1760,22 +1978,42 @@
       <c r="D12" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
       <c r="B13" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
         <v>8</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1786,9 +2024,11 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Обзор экспорта'!R1C1" tooltip="" display="Обзор экспорта"/>
     <hyperlink ref="D10" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
-    <hyperlink ref="D12" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
     <hyperlink ref="D12" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
     <hyperlink ref="D14" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
+    <hyperlink ref="D12" location="'newsGSM'!R1C1" tooltip="" display="newsGSM"/>
+    <hyperlink ref="D14" location="'phoneFinder'!R1C1" tooltip="" display="phoneFinder"/>
+    <hyperlink ref="D16" location="'opinions'!R1C1" tooltip="" display="opinions"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2092,7 +2332,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s" s="45">
         <v>17</v>
@@ -2153,6 +2393,114 @@
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="52">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="52">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="52">
+        <v>19</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="55">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="56">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="57">
+        <v>24</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
